--- a/natmiOut/OldD4/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.38692460933214</v>
+        <v>3.194648666666667</v>
       </c>
       <c r="H2">
-        <v>2.38692460933214</v>
+        <v>9.583946000000001</v>
       </c>
       <c r="I2">
-        <v>0.0875885403934082</v>
+        <v>0.1104372036365826</v>
       </c>
       <c r="J2">
-        <v>0.0875885403934082</v>
+        <v>0.122064847035162</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.449895154248019</v>
+        <v>0.2569163333333334</v>
       </c>
       <c r="N2">
-        <v>0.449895154248019</v>
+        <v>0.770749</v>
       </c>
       <c r="O2">
-        <v>0.5622219678444856</v>
+        <v>0.2154602692984302</v>
       </c>
       <c r="P2">
-        <v>0.5622219678444856</v>
+        <v>0.2443643158836536</v>
       </c>
       <c r="Q2">
-        <v>1.073865815293876</v>
+        <v>0.8207574217282224</v>
       </c>
       <c r="R2">
-        <v>1.073865815293876</v>
+        <v>7.386816795554001</v>
       </c>
       <c r="S2">
-        <v>0.04924420154060818</v>
+        <v>0.02379482963610366</v>
       </c>
       <c r="T2">
-        <v>0.04924420154060818</v>
+        <v>0.02982829283919019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.38692460933214</v>
+        <v>3.194648666666667</v>
       </c>
       <c r="H3">
-        <v>2.38692460933214</v>
+        <v>9.583946000000001</v>
       </c>
       <c r="I3">
-        <v>0.0875885403934082</v>
+        <v>0.1104372036365826</v>
       </c>
       <c r="J3">
-        <v>0.0875885403934082</v>
+        <v>0.122064847035162</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.350313980184919</v>
+        <v>0.5123676666666667</v>
       </c>
       <c r="N3">
-        <v>0.350313980184919</v>
+        <v>1.537103</v>
       </c>
       <c r="O3">
-        <v>0.4377780321555143</v>
+        <v>0.4296919312505433</v>
       </c>
       <c r="P3">
-        <v>0.4377780321555143</v>
+        <v>0.4873352064520506</v>
       </c>
       <c r="Q3">
-        <v>0.8361730602964748</v>
+        <v>1.636834683159778</v>
       </c>
       <c r="R3">
-        <v>0.8361730602964748</v>
+        <v>14.731512148438</v>
       </c>
       <c r="S3">
-        <v>0.03834433885280002</v>
+        <v>0.04745397531251268</v>
       </c>
       <c r="T3">
-        <v>0.03834433885280002</v>
+        <v>0.05948649743041867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.1772260115505</v>
+        <v>3.194648666666667</v>
       </c>
       <c r="H4">
-        <v>16.1772260115505</v>
+        <v>9.583946000000001</v>
       </c>
       <c r="I4">
-        <v>0.5936256253868208</v>
+        <v>0.1104372036365826</v>
       </c>
       <c r="J4">
-        <v>0.5936256253868208</v>
+        <v>0.122064847035162</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.449895154248019</v>
+        <v>0.423123</v>
       </c>
       <c r="N4">
-        <v>0.449895154248019</v>
+        <v>0.8462460000000001</v>
       </c>
       <c r="O4">
-        <v>0.5622219678444856</v>
+        <v>0.3548477994510263</v>
       </c>
       <c r="P4">
-        <v>0.5622219678444856</v>
+        <v>0.2683004776642958</v>
       </c>
       <c r="Q4">
-        <v>7.278055591771577</v>
+        <v>1.351729327786</v>
       </c>
       <c r="R4">
-        <v>7.278055591771577</v>
+        <v>8.110375966716001</v>
       </c>
       <c r="S4">
-        <v>0.3337493672678918</v>
+        <v>0.0391883986879662</v>
       </c>
       <c r="T4">
-        <v>0.3337493672678918</v>
+        <v>0.03275005676555317</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.1772260115505</v>
+        <v>16.97794966666667</v>
       </c>
       <c r="H5">
-        <v>16.1772260115505</v>
+        <v>50.93384900000001</v>
       </c>
       <c r="I5">
-        <v>0.5936256253868208</v>
+        <v>0.5869181497900705</v>
       </c>
       <c r="J5">
-        <v>0.5936256253868208</v>
+        <v>0.64871322178746</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.350313980184919</v>
+        <v>0.2569163333333334</v>
       </c>
       <c r="N5">
-        <v>0.350313980184919</v>
+        <v>0.770749</v>
       </c>
       <c r="O5">
-        <v>0.4377780321555143</v>
+        <v>0.2154602692984302</v>
       </c>
       <c r="P5">
-        <v>0.4377780321555143</v>
+        <v>0.2443643158836536</v>
       </c>
       <c r="Q5">
-        <v>5.667108432457257</v>
+        <v>4.36191257587789</v>
       </c>
       <c r="R5">
-        <v>5.667108432457257</v>
+        <v>39.257213182901</v>
       </c>
       <c r="S5">
-        <v>0.2598762581189289</v>
+        <v>0.126457542609905</v>
       </c>
       <c r="T5">
-        <v>0.2598762581189289</v>
+        <v>0.1585223626467735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.103378737851435</v>
+        <v>16.97794966666667</v>
       </c>
       <c r="H6">
-        <v>0.103378737851435</v>
+        <v>50.93384900000001</v>
       </c>
       <c r="I6">
-        <v>0.003793497591301594</v>
+        <v>0.5869181497900705</v>
       </c>
       <c r="J6">
-        <v>0.003793497591301594</v>
+        <v>0.64871322178746</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.449895154248019</v>
+        <v>0.5123676666666667</v>
       </c>
       <c r="N6">
-        <v>0.449895154248019</v>
+        <v>1.537103</v>
       </c>
       <c r="O6">
-        <v>0.5622219678444856</v>
+        <v>0.4296919312505433</v>
       </c>
       <c r="P6">
-        <v>0.5622219678444856</v>
+        <v>0.4873352064520506</v>
       </c>
       <c r="Q6">
-        <v>0.04650959321163687</v>
+        <v>8.698952455494114</v>
       </c>
       <c r="R6">
-        <v>0.04650959321163687</v>
+        <v>78.29057209944702</v>
       </c>
       <c r="S6">
-        <v>0.002132787680794899</v>
+        <v>0.252193993269291</v>
       </c>
       <c r="T6">
-        <v>0.002132787680794899</v>
+        <v>0.3161407918679667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.103378737851435</v>
+        <v>16.97794966666667</v>
       </c>
       <c r="H7">
-        <v>0.103378737851435</v>
+        <v>50.93384900000001</v>
       </c>
       <c r="I7">
-        <v>0.003793497591301594</v>
+        <v>0.5869181497900705</v>
       </c>
       <c r="J7">
-        <v>0.003793497591301594</v>
+        <v>0.64871322178746</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.350313980184919</v>
+        <v>0.423123</v>
       </c>
       <c r="N7">
-        <v>0.350313980184919</v>
+        <v>0.8462460000000001</v>
       </c>
       <c r="O7">
-        <v>0.4377780321555143</v>
+        <v>0.3548477994510263</v>
       </c>
       <c r="P7">
-        <v>0.4377780321555143</v>
+        <v>0.2683004776642958</v>
       </c>
       <c r="Q7">
-        <v>0.03621501712322954</v>
+        <v>7.183760996809002</v>
       </c>
       <c r="R7">
-        <v>0.03621501712322954</v>
+        <v>43.10256598085401</v>
       </c>
       <c r="S7">
-        <v>0.001660709910506695</v>
+        <v>0.2082666139108744</v>
       </c>
       <c r="T7">
-        <v>0.001660709910506695</v>
+        <v>0.1740500672727198</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.332801250256418</v>
+        <v>0.1410116666666667</v>
       </c>
       <c r="H8">
-        <v>0.332801250256418</v>
+        <v>0.423035</v>
       </c>
       <c r="I8">
-        <v>0.0122121895417623</v>
+        <v>0.004874693830745885</v>
       </c>
       <c r="J8">
-        <v>0.0122121895417623</v>
+        <v>0.005387937553646458</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.449895154248019</v>
+        <v>0.2569163333333334</v>
       </c>
       <c r="N8">
-        <v>0.449895154248019</v>
+        <v>0.770749</v>
       </c>
       <c r="O8">
-        <v>0.5622219678444856</v>
+        <v>0.2154602692984302</v>
       </c>
       <c r="P8">
-        <v>0.5622219678444856</v>
+        <v>0.2443643158836536</v>
       </c>
       <c r="Q8">
-        <v>0.1497256698180447</v>
+        <v>0.03622820035722223</v>
       </c>
       <c r="R8">
-        <v>0.1497256698180447</v>
+        <v>0.326053803215</v>
       </c>
       <c r="S8">
-        <v>0.006865961235859447</v>
+        <v>0.001050302845519905</v>
       </c>
       <c r="T8">
-        <v>0.006865961235859447</v>
+        <v>0.001316619674320663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.332801250256418</v>
+        <v>0.1410116666666667</v>
       </c>
       <c r="H9">
-        <v>0.332801250256418</v>
+        <v>0.423035</v>
       </c>
       <c r="I9">
-        <v>0.0122121895417623</v>
+        <v>0.004874693830745885</v>
       </c>
       <c r="J9">
-        <v>0.0122121895417623</v>
+        <v>0.005387937553646458</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.350313980184919</v>
+        <v>0.5123676666666667</v>
       </c>
       <c r="N9">
-        <v>0.350313980184919</v>
+        <v>1.537103</v>
       </c>
       <c r="O9">
-        <v>0.4377780321555143</v>
+        <v>0.4296919312505433</v>
       </c>
       <c r="P9">
-        <v>0.4377780321555143</v>
+        <v>0.4873352064520506</v>
       </c>
       <c r="Q9">
-        <v>0.1165849305878431</v>
+        <v>0.07224981862277778</v>
       </c>
       <c r="R9">
-        <v>0.1165849305878431</v>
+        <v>0.650248367605</v>
       </c>
       <c r="S9">
-        <v>0.005346228305902851</v>
+        <v>0.002094616606388308</v>
       </c>
       <c r="T9">
-        <v>0.005346228305902851</v>
+        <v>0.002625731660057053</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.251232193759179</v>
+        <v>0.1410116666666667</v>
       </c>
       <c r="H10">
-        <v>8.251232193759179</v>
+        <v>0.423035</v>
       </c>
       <c r="I10">
-        <v>0.302780147086707</v>
+        <v>0.004874693830745885</v>
       </c>
       <c r="J10">
-        <v>0.302780147086707</v>
+        <v>0.005387937553646458</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.449895154248019</v>
+        <v>0.423123</v>
       </c>
       <c r="N10">
-        <v>0.449895154248019</v>
+        <v>0.8462460000000001</v>
       </c>
       <c r="O10">
-        <v>0.5622219678444856</v>
+        <v>0.3548477994510263</v>
       </c>
       <c r="P10">
-        <v>0.5622219678444856</v>
+        <v>0.2683004776642958</v>
       </c>
       <c r="Q10">
-        <v>3.712189380547506</v>
+        <v>0.05966527943500001</v>
       </c>
       <c r="R10">
-        <v>3.712189380547506</v>
+        <v>0.35799167661</v>
       </c>
       <c r="S10">
-        <v>0.1702296501193312</v>
+        <v>0.001729774378837671</v>
       </c>
       <c r="T10">
-        <v>0.1702296501193312</v>
+        <v>0.001445586219268742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3470173333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.041052</v>
+      </c>
+      <c r="I11">
+        <v>0.01199619360545975</v>
+      </c>
+      <c r="J11">
+        <v>0.01325924135378574</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2569163333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.770749</v>
+      </c>
+      <c r="O11">
+        <v>0.2154602692984302</v>
+      </c>
+      <c r="P11">
+        <v>0.2443643158836536</v>
+      </c>
+      <c r="Q11">
+        <v>0.08915442088311111</v>
+      </c>
+      <c r="R11">
+        <v>0.8023897879479999</v>
+      </c>
+      <c r="S11">
+        <v>0.002584703104788464</v>
+      </c>
+      <c r="T11">
+        <v>0.003240085442554102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3470173333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.041052</v>
+      </c>
+      <c r="I12">
+        <v>0.01199619360545975</v>
+      </c>
+      <c r="J12">
+        <v>0.01325924135378574</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5123676666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.537103</v>
+      </c>
+      <c r="O12">
+        <v>0.4296919312505433</v>
+      </c>
+      <c r="P12">
+        <v>0.4873352064520506</v>
+      </c>
+      <c r="Q12">
+        <v>0.1778004613728889</v>
+      </c>
+      <c r="R12">
+        <v>1.600204152356</v>
+      </c>
+      <c r="S12">
+        <v>0.005154667597985416</v>
+      </c>
+      <c r="T12">
+        <v>0.006461695122544743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>8.251232193759179</v>
-      </c>
-      <c r="H11">
-        <v>8.251232193759179</v>
-      </c>
-      <c r="I11">
-        <v>0.302780147086707</v>
-      </c>
-      <c r="J11">
-        <v>0.302780147086707</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.350313980184919</v>
-      </c>
-      <c r="N11">
-        <v>0.350313980184919</v>
-      </c>
-      <c r="O11">
-        <v>0.4377780321555143</v>
-      </c>
-      <c r="P11">
-        <v>0.4377780321555143</v>
-      </c>
-      <c r="Q11">
-        <v>2.890521991225719</v>
-      </c>
-      <c r="R11">
-        <v>2.890521991225719</v>
-      </c>
-      <c r="S11">
-        <v>0.1325504969673758</v>
-      </c>
-      <c r="T11">
-        <v>0.1325504969673758</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3470173333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.041052</v>
+      </c>
+      <c r="I13">
+        <v>0.01199619360545975</v>
+      </c>
+      <c r="J13">
+        <v>0.01325924135378574</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.423123</v>
+      </c>
+      <c r="N13">
+        <v>0.8462460000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.3548477994510263</v>
+      </c>
+      <c r="P13">
+        <v>0.2683004776642958</v>
+      </c>
+      <c r="Q13">
+        <v>0.146831015132</v>
+      </c>
+      <c r="R13">
+        <v>0.880986090792</v>
+      </c>
+      <c r="S13">
+        <v>0.004256822902685865</v>
+      </c>
+      <c r="T13">
+        <v>0.003557460788686898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.266659499999999</v>
+      </c>
+      <c r="H14">
+        <v>16.533319</v>
+      </c>
+      <c r="I14">
+        <v>0.2857737591371413</v>
+      </c>
+      <c r="J14">
+        <v>0.2105747522699458</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2569163333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.770749</v>
+      </c>
+      <c r="O14">
+        <v>0.2154602692984302</v>
+      </c>
+      <c r="P14">
+        <v>0.2443643158836536</v>
+      </c>
+      <c r="Q14">
+        <v>2.123839847655167</v>
+      </c>
+      <c r="R14">
+        <v>12.743039085931</v>
+      </c>
+      <c r="S14">
+        <v>0.06157289110211319</v>
+      </c>
+      <c r="T14">
+        <v>0.05145695528081512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.266659499999999</v>
+      </c>
+      <c r="H15">
+        <v>16.533319</v>
+      </c>
+      <c r="I15">
+        <v>0.2857737591371413</v>
+      </c>
+      <c r="J15">
+        <v>0.2105747522699458</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5123676666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.537103</v>
+      </c>
+      <c r="O15">
+        <v>0.4296919312505433</v>
+      </c>
+      <c r="P15">
+        <v>0.4873352064520506</v>
+      </c>
+      <c r="Q15">
+        <v>4.235569039142833</v>
+      </c>
+      <c r="R15">
+        <v>25.413414234857</v>
+      </c>
+      <c r="S15">
+        <v>0.1227946784643658</v>
+      </c>
+      <c r="T15">
+        <v>0.1026204903710634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.266659499999999</v>
+      </c>
+      <c r="H16">
+        <v>16.533319</v>
+      </c>
+      <c r="I16">
+        <v>0.2857737591371413</v>
+      </c>
+      <c r="J16">
+        <v>0.2105747522699458</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.423123</v>
+      </c>
+      <c r="N16">
+        <v>0.8462460000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.3548477994510263</v>
+      </c>
+      <c r="P16">
+        <v>0.2683004776642958</v>
+      </c>
+      <c r="Q16">
+        <v>3.4978137676185</v>
+      </c>
+      <c r="R16">
+        <v>13.991255070474</v>
+      </c>
+      <c r="S16">
+        <v>0.1014061895706622</v>
+      </c>
+      <c r="T16">
+        <v>0.0564973066180672</v>
       </c>
     </row>
   </sheetData>
